--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Projects\test-questions-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207C177F-EAEA-4DD9-BC7B-7DF2196FEDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD586C-E399-4DA1-BEE2-7CD6840C4449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6EB084F-3A04-490C-8838-C2B86E175DC4}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
-  <si>
-    <t>A chemical bond is a lasting attraction between atoms, ions or molecules that enables the formation of chemical compounds. The bond may result from the electrostatic force of attraction between oppositely charged ions as in ionic bonds or through the sharing of electrons as in covalent bonds. The strength of chemical bonds varies considerably; there are "strong bonds" or "primary bonds" such as covalent, ionic and metallic bonds, and "weak bonds" or "secondary bonds" such as dipole–dipole interactions, the London dispersion force and hydrogen bonding.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>passagename</t>
   </si>
   <si>
-    <t>chemical bond</t>
-  </si>
-  <si>
-    <t>Biology is the natural science that studies life and living organisms, including their physical structure, chemical processes, molecular interactions, physiological mechanisms, development and evolution.[1] Despite the complexity of the science, certain unifying concepts consolidate it into a single, coherent field. Biology recognizes the cell as the basic unit of life, genes as the basic unit of heredity, and evolution as the engine that propels the creation and extinction of species. Living organisms are open systems that survive by transforming energy and decreasing their local entropy[2] to maintain a stable and vital condition defined as homeostasis.[3]`,</t>
-  </si>
-  <si>
     <t>BIology,</t>
   </si>
   <si>
@@ -61,6 +52,20 @@
   </si>
   <si>
     <t>passage</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English is a West Germanic language first spoken in early medieval England which eventually became the leading language of international discourse in today's world.[4][5][6] It is named after the Angles, one of the ancient Germanic peoples that migrated to the area of Great Britain that later took their name, England. Both names derive from Anglia, a peninsula on the Baltic Sea. English is most closely related to Frisian and Low Saxon, while its vocabulary has been significantly influenced by other Germanic languages, particularly Old Norse (a North Germanic language), as well as Latin and French.[7][8][9]. 
+A chemical bond is a lasting attraction between atoms, ions or molecules that enables the formation of chemical compounds. The bond may result from the electrostatic force of attraction between oppositely charged ions as in ionic bonds or through the sharing of electrons as in covalent bonds. The strength of chemical bonds varies considerably; there are "strong bonds" or "primary bonds" such as covalent, ionic and metallic bonds, and "weak bonds" or "secondary bonds" such as dipole–dipole interactions, the London dispersion force and hydrogen bonding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglo-Saxon England was early medieval England, existing from the 5th to the 11th centuries from the end of Roman Britain until the Norman conquest in 1066. It consisted of various Anglo-Saxon kingdoms until 927 when it was united as the Kingdom of England by King Æthelstan (r. 927–939). It became part of the short-lived North Sea Empire of Cnut the Great, a personal union between England, Denmark and Norway in the 11th century.
+The Anglo-Saxons were the members of Germanic-speaking groups who migrated to the southern half of the island of Great Britain from nearby northwestern Europe. Anglo-Saxon history thus begins during the period of sub-Roman Britain following the end of Roman control, and traces the establishment of Anglo-Saxon kingdoms in the 5th and 6th centuries (conventionally identified as seven main kingdoms: Northumbria, Mercia, East Anglia, Essex, Kent, Sussex, and Wessex), their Christianisation during the 7th century, the threat of Viking invasions and Danish settlers, the gradual unification of England under the Wessex hegemony during the 9th and 10th centuries, and ending with the Norman conquest of England by William the Conqueror in 1066. </t>
+  </si>
+  <si>
+    <t>When did the United States of America become a country?</t>
   </si>
 </sst>
 </file>
@@ -418,7 +423,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,84 +436,84 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -529,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -550,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -573,34 +578,34 @@
     </row>
     <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1938</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1900</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="K3">
         <v>44</v>
@@ -621,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R3">
         <v>2</v>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Projects\test-questions-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD586C-E399-4DA1-BEE2-7CD6840C4449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E59677-2D4A-41B3-9C92-31082B568CB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6EB084F-3A04-490C-8838-C2B86E175DC4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>passagename</t>
   </si>
@@ -66,19 +66,34 @@
   </si>
   <si>
     <t>When did the United States of America become a country?</t>
+  </si>
+  <si>
+    <t>Because the homozygous mutation is lethal, only wildtype and heterozygous animals survive. In a heterozygous cross with the homozygous offspring removed, the ratio of heterozygotes is 2:1, or 66% (choice C is correct). 25% would be the expected fraction of wildtype or homozygote animals if the homozygous state was not lethal (choice A is incorrect). 50% is the ratio of heterozygous animals if the homozygous state was not lethal (choice B is incorrect). 75% is the ratio of the dominant phenotype if the homozygous state was not lethal (choice D is incorrect).</t>
+  </si>
+  <si>
+    <t>The passage states that ARID1B participates in a complex that reorganizes chromatin, which is made of DNA, suggesting that ARID1B might have a DNA binding domain (choice B is correct). There is no evidence to suggest that ARID1B binds RNA (choice A is incorrect). There is no evidence to suggest that ARID1B is a transmembrane protein (choice C is incorrect). There is no evidence to suggest that ARID1B participates in extracellular functions (choice D is incorrect). Choices C and D could additionally be eliminated with the knowledge that ARID1B likely functions within the nucleus</t>
+  </si>
+  <si>
+    <t>answerExplanation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,9 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BD51D4-353E-4DDA-8A04-F58BDC3BE689}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S13" sqref="R13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +453,7 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -463,35 +482,35 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
@@ -504,8 +523,17 @@
       <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -533,50 +561,59 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>9</v>
       </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>2</v>
       </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
       <c r="U2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>4</v>
       </c>
-      <c r="W2" t="b">
-        <v>0</v>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -604,50 +641,59 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>44</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>9</v>
       </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
       <c r="U3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="W3" t="b">
-        <v>0</v>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -655,5 +701,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Projects\test-questions-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E59677-2D4A-41B3-9C92-31082B568CB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BFF9D-A34D-4A0C-8257-7C53601D6710}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6EB084F-3A04-490C-8838-C2B86E175DC4}"/>
+    <workbookView xWindow="285" yWindow="1560" windowWidth="13080" windowHeight="8745" xr2:uid="{E6EB084F-3A04-490C-8838-C2B86E175DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>passagename</t>
   </si>
@@ -75,13 +75,50 @@
   </si>
   <si>
     <t>answerExplanation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Suppose that two of the experimental animals used in the passage produced several offspring. What proportion of the surviving offspring would be expected to heterozygous for mutation in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Arid1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Ho6. How might ARID1B change Nlgn1 expression?
+I. Bind a Nlgn1 promoter
+II. Bind a Nlgn1 intron
+III. Bind a Nlgn1 enhancer
+IV. Bind a Nlgn1 exon
+w old is the earth?</t>
+  </si>
+  <si>
+    <t>Be Autism Spectrum Disorder (ASD) is associated with mutations in various genes that serve roles in neuronal communication and regulation of gene expression. The specific role that many of these genes play in brain development, however, is yet to be elucidated. Animal models allow researchers to characterize the function of these genes in vivo.
+Researchers investigated the effect of mutations in ARID1B, a gene associated with ASD, on gene expression using the heterozygous Arid1b+/- mouse strain. Researchers previously found that the homozygous knockout of Arid1b was embryonically lethal.  The protein encoded by Arid1b is a component of the SWI/SNF complex, which rearranges nucleosomes to reorganize chromatin. Researchers hypothesized that in Arid1b+/- mice, developing neurons would fail to form typical synapses that facilitate neuronal communication. 
+In Experiment 1, to characterize the SWI/SNF complex in these animals, researchers prepared homogenates of brain tissue from Arid1b+/- and wildtype animals at embryonic day 10 (E10). These homogenates were subject to native PAGE, and the resulting gels were stained for the protein SMARCA4, another key element of the SWI/SNF complex. The results are shown in Figure 1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +127,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -116,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -124,6 +168,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +489,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S13" sqref="R13:S13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +498,7 @@
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -561,11 +609,11 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -589,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="T2">
         <v>2</v>
